--- a/revision.xlsx
+++ b/revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5a5781ba5c090ca/UTEC/Intercambio/Ciclo 8/Machine learning/Tp/Tp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{0A5E5592-8BCE-4139-A14A-EBD517882656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E98E232F-7CA5-4405-B261-6814C2790D75}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{0A5E5592-8BCE-4139-A14A-EBD517882656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65D4446-8D5F-4E6F-831B-ECA8F7561228}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D4C1455-25DD-453E-8B07-3A83410AA917}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>I</t>
   </si>
@@ -79,6 +79,18 @@
   <si>
     <t>Verosimilitud</t>
   </si>
+  <si>
+    <t>Probabilidad Inglesa</t>
+  </si>
+  <si>
+    <t>Probabilidad Escosesa</t>
+  </si>
+  <si>
+    <t>caso1</t>
+  </si>
+  <si>
+    <t>caso 2</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,11 +148,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,13 +175,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -178,6 +209,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,49 +534,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE384DF-310B-4A93-8942-2AEE7E559900}">
   <dimension ref="A2:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="3" t="s">
         <v>8</v>
       </c>
@@ -786,10 +822,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5"/>
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -811,57 +847,57 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="5"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
@@ -916,6 +952,7 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="1">
+        <f>D4</f>
         <v>8</v>
       </c>
       <c r="E16" s="4">
@@ -927,6 +964,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="1">
+        <f>G4</f>
         <v>8</v>
       </c>
       <c r="H16" s="4">
@@ -938,6 +976,7 @@
         <v>0.625</v>
       </c>
       <c r="J16" s="1">
+        <f>J4</f>
         <v>8</v>
       </c>
       <c r="K16" s="4">
@@ -949,6 +988,7 @@
         <v>0.5</v>
       </c>
       <c r="M16" s="1">
+        <f>M4</f>
         <v>8</v>
       </c>
       <c r="N16" s="4">
@@ -960,6 +1000,7 @@
         <v>0.5</v>
       </c>
       <c r="P16" s="1">
+        <f>P4</f>
         <v>8</v>
       </c>
     </row>
@@ -976,6 +1017,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="D17" s="1">
+        <f>D5</f>
         <v>9</v>
       </c>
       <c r="E17" s="4">
@@ -987,6 +1029,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="G17" s="1">
+        <f>G5</f>
         <v>9</v>
       </c>
       <c r="H17" s="4">
@@ -998,6 +1041,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="J17" s="1">
+        <f>J5</f>
         <v>9</v>
       </c>
       <c r="K17" s="4">
@@ -1009,6 +1053,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="M17" s="1">
+        <f>M5</f>
         <v>9</v>
       </c>
       <c r="N17" s="4">
@@ -1020,112 +1065,128 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="P17" s="1">
+        <f>P5</f>
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
+        <f>B6</f>
         <v>12</v>
       </c>
       <c r="C18" s="1">
+        <f>C6</f>
         <v>5</v>
       </c>
       <c r="D18" s="3">
+        <f>D6</f>
         <v>17</v>
       </c>
       <c r="E18" s="1">
+        <f>E6</f>
         <v>9</v>
       </c>
       <c r="F18" s="1">
+        <f>F6</f>
         <v>8</v>
       </c>
       <c r="G18" s="3">
+        <f>G6</f>
         <v>17</v>
       </c>
       <c r="H18" s="1">
+        <f>H6</f>
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f>I6</f>
         <v>10</v>
       </c>
       <c r="J18" s="3">
+        <f>J6</f>
         <v>17</v>
       </c>
       <c r="K18" s="1">
+        <f>K6</f>
         <v>10</v>
       </c>
       <c r="L18" s="1">
+        <f>L6</f>
         <v>7</v>
       </c>
       <c r="M18" s="3">
+        <f>M6</f>
         <v>17</v>
       </c>
       <c r="N18" s="1">
+        <f>N6</f>
         <v>8</v>
       </c>
       <c r="O18" s="1">
+        <f>O6</f>
         <v>9</v>
       </c>
       <c r="P18" s="3">
+        <f>P6</f>
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1283,48 +1344,63 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
+        <f t="shared" ref="B26:P26" si="1">B6</f>
         <v>12</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="E26" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F26" s="1">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="H26" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="K26" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L26" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="1">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="N26" s="1">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O26" s="1">
-        <v>9</v>
-      </c>
-      <c r="P26" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -1387,6 +1463,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F32">
         <f>B16*F16*H16*K16*O16</f>
@@ -1396,28 +1480,43 @@
         <f>B10</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="I32" s="5">
+      <c r="H32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="10">
         <f>(F32*G32)/F33</f>
         <v>0.25893167162698405</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="10">
         <f>I32+I35</f>
         <v>1.0671805109686445</v>
       </c>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F33" s="6">
+      <c r="K32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <f>I32/J32</f>
+        <v>0.24263155948374687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F33" s="9">
         <f>B27*F27*H27*K27*O27</f>
         <v>4.2595838876731962E-2</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="9"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F35">
         <f>B17*F17*H17*K17*O17</f>
         <v>6.50307371843723E-2</v>
@@ -1426,39 +1525,57 @@
         <f>B11</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="I35" s="5">
+      <c r="H35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="10">
         <f>(F35*G35)/F36</f>
         <v>0.80824883934166047</v>
       </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F36" s="6">
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35">
+        <f>I35/J32</f>
+        <v>0.75736844051625318</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F36" s="9">
         <f>B27*F27*H27*K27*O27</f>
         <v>4.2595838876731962E-2</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="9"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F40">
         <f>C16*E16*H16*L16*N16</f>
         <v>2.34375E-2</v>
@@ -1467,28 +1584,43 @@
         <f>B10</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="I40" s="5">
+      <c r="H40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="10">
         <f>(F40*G40)/F41</f>
         <v>0.8877657312925169</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="10">
         <f>I40+I43</f>
         <v>1.0609619111514441</v>
       </c>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F41" s="6">
+      <c r="K40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <f>I40/J40</f>
+        <v>0.83675551587807684</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F41" s="9">
         <f>C27*E27*H27*L27*N27</f>
         <v>1.2423786339046819E-2</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="9"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F43">
         <f>C17*E17*H17*L17*N17</f>
         <v>4.064421074023267E-3</v>
@@ -1497,23 +1629,56 @@
         <f>B11</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="I43" s="5">
+      <c r="H43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="10">
         <f>(F43*G43)/F44</f>
         <v>0.17319617985892721</v>
       </c>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F44" s="6">
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43">
+        <f>I43/J40</f>
+        <v>0.16324448412192319</v>
+      </c>
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F44" s="9">
         <f>C27*E27*H27*L27*N27</f>
         <v>1.2423786339046819E-2</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="37">
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="B2:C2"/>
@@ -1522,27 +1687,12 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:O22"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
